--- a/Project/Sport1_P2.xlsx
+++ b/Project/Sport1_P2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039532BD-D54F-4315-B2FF-740EFAF269DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418DD2D4-BD11-4206-A535-D392A3D48137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15360" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thu" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Nội dung</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Nhân công</t>
   </si>
   <si>
-    <t>Thanh toán</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán</t>
-  </si>
-  <si>
     <t>40N60 + thiếc hàn</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>SPORT1 P2 Chi</t>
+  </si>
+  <si>
+    <t>IGBT</t>
+  </si>
+  <si>
+    <t>A Khơ</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -218,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -279,6 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="L2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +595,7 @@
     </row>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L3" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -650,7 +660,7 @@
   <dimension ref="K3:P14"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +675,7 @@
       <c r="L3" s="1"/>
       <c r="O3" s="11">
         <f>SUM(L7:L12)</f>
-        <v>5885000</v>
+        <v>6035000</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>3</v>
@@ -673,7 +683,7 @@
     </row>
     <row r="4" spans="11:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -693,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N6" s="20"/>
     </row>
@@ -703,11 +713,9 @@
       </c>
       <c r="L7" s="8">
         <f>Mua_sam_linh_kien</f>
-        <v>2285000</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>2435000</v>
+      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="11:16" x14ac:dyDescent="0.25">
@@ -718,9 +726,7 @@
         <f>Nhan_cong</f>
         <v>3600000</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="11:16" x14ac:dyDescent="0.25">
@@ -758,7 +764,7 @@
     <mergeCell ref="K4:M5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:N12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N12 M10:M12" xr:uid="{57733A48-D2A0-4B53-81BD-DD553CAAA36D}">
       <formula1>"Đã thanh toán, Chưa thanh toán"</formula1>
     </dataValidation>
   </dataValidations>
@@ -767,6 +773,7 @@
     <hyperlink ref="K7" location="'Linh kiện'!A1" display="Mua sắm linh kiện" xr:uid="{969864DA-9A2D-48B8-9F7E-22D91903C0DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -774,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49A106-6870-47BE-BEAE-1CF90A276984}">
   <dimension ref="J3:Q28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +806,7 @@
       <c r="N3" s="29"/>
       <c r="P3" s="11">
         <f>SUM(M6:M28)</f>
-        <v>2285000</v>
+        <v>2435000</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>3</v>
@@ -831,7 +838,7 @@
     </row>
     <row r="6" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -845,10 +852,17 @@
       <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="P6" s="1">
+        <f>SUM(M6:M11)</f>
+        <v>2285000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="6">
         <v>1</v>
@@ -865,7 +879,7 @@
     </row>
     <row r="8" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="6">
         <v>2</v>
@@ -879,10 +893,17 @@
       <c r="N8" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="P8" s="1">
+        <f>SUM(M12)</f>
+        <v>150000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -899,7 +920,7 @@
     </row>
     <row r="10" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6">
         <v>2</v>
@@ -916,7 +937,7 @@
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="6">
         <v>1</v>
@@ -932,11 +953,22 @@
       </c>
     </row>
     <row r="12" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="6"/>
+      <c r="J12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="22">
+        <v>10</v>
+      </c>
+      <c r="L12" s="23">
+        <v>15000</v>
+      </c>
+      <c r="M12" s="8">
+        <f>L12*K12</f>
+        <v>150000</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="10:17" x14ac:dyDescent="0.25">
       <c r="J13" s="6"/>
@@ -1062,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23444351-FC48-44BA-96E7-BEFB47C6803D}">
   <dimension ref="J5:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,12 +1137,19 @@
     </row>
     <row r="8" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K8" s="8">
         <v>3600000</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUM(K8)</f>
+        <v>3600000</v>
+      </c>
+      <c r="O8" t="s">
         <v>10</v>
       </c>
     </row>
